--- a/data/case1/5/Qlm1_3.xlsx
+++ b/data/case1/5/Qlm1_3.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.22793484341463</v>
+        <v>-0.22140880831450005</v>
       </c>
       <c r="B1" s="0">
-        <v>0.22735222233475127</v>
+        <v>0.22084393921515044</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.16726632297512722</v>
+        <v>-0.15871549175709365</v>
       </c>
       <c r="B2" s="0">
-        <v>0.16564656557418633</v>
+        <v>0.15713324437057796</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.078741316351580437</v>
+        <v>-0.10741506937133138</v>
       </c>
       <c r="B3" s="0">
-        <v>0.078490993598261838</v>
+        <v>0.10693935313082825</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.070490993649229949</v>
+        <v>-0.098939353182974088</v>
       </c>
       <c r="B4" s="0">
-        <v>0.070279894581927849</v>
+        <v>0.098513352809533217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.067279894608691215</v>
+        <v>-0.095513352838356269</v>
       </c>
       <c r="B5" s="0">
-        <v>0.06658544902546204</v>
+        <v>0.094069774546508</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.052704190426632991</v>
+        <v>-0.052728166443722913</v>
       </c>
       <c r="B6" s="0">
-        <v>0.052099590444509403</v>
+        <v>0.052115092620825365</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.042099590509392382</v>
+        <v>-0.042115092693183698</v>
       </c>
       <c r="B7" s="0">
-        <v>0.04194714908199737</v>
+        <v>0.041960494408522564</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.031947149148879195</v>
+        <v>-0.031960494483155522</v>
       </c>
       <c r="B8" s="0">
-        <v>0.031660528374565011</v>
+        <v>0.031669798797199</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.029660528401611597</v>
+        <v>-0.029669798832368866</v>
       </c>
       <c r="B9" s="0">
-        <v>0.029419726576038752</v>
+        <v>0.029425553159023288</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.027419726604279049</v>
+        <v>-0.02742555319637674</v>
       </c>
       <c r="B10" s="0">
-        <v>0.027403599741747442</v>
+        <v>0.027409302111820466</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.024403599775348006</v>
+        <v>-0.024409302154771773</v>
       </c>
       <c r="B11" s="0">
-        <v>0.024376392871393371</v>
+        <v>0.02438178563833393</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.020876392907992702</v>
+        <v>-0.020881785684572218</v>
       </c>
       <c r="B12" s="0">
-        <v>0.020676165992641771</v>
+        <v>0.020678675071708952</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.017176166030306028</v>
+        <v>-0.017178675120117504</v>
       </c>
       <c r="B13" s="0">
-        <v>0.017084955891350617</v>
+        <v>0.017086143863811465</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090849559520815859</v>
+        <v>-0.0090861439361971108</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090551247429884185</v>
+        <v>0.0090558956755728559</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080551247674813808</v>
+        <v>-0.0080558957116263485</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080358571145522362</v>
+        <v>0.0080363567138004299</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.00603585714425936</v>
+        <v>-0.0060363567554100328</v>
       </c>
       <c r="B16" s="0">
-        <v>0.006003650691582596</v>
+        <v>0.0060036763329431864</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040036507210299277</v>
+        <v>-0.0040036763748885207</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999602216008</v>
+        <v>0.0039999999474504833</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.054085899391857595</v>
+        <v>-0.056128447490785049</v>
       </c>
       <c r="B18" s="0">
-        <v>0.053961088963426107</v>
+        <v>0.056010595388396922</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.049961088985976065</v>
+        <v>-0.052010595411193794</v>
       </c>
       <c r="B19" s="0">
-        <v>0.049039741831451877</v>
+        <v>0.051143439650085831</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.045039741860998461</v>
+        <v>-0.047143439679526722</v>
       </c>
       <c r="B20" s="0">
-        <v>0.044774553569871145</v>
+        <v>0.046895252793278885</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040058652128109884</v>
+        <v>-0.0040058507095768192</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999688218324</v>
+        <v>0.0039999999688768995</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.04571839359923846</v>
+        <v>-0.045718175027676722</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045503176100959664</v>
+        <v>0.045503035777365142</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040503176136466479</v>
+        <v>-0.040503035812623267</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040099860568701295</v>
+        <v>0.040099839591465347</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020099860684820392</v>
+        <v>-0.020099839708014322</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999882395869</v>
+        <v>0.019999999881997965</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.011881258623047231</v>
+        <v>-0.039341608133003803</v>
       </c>
       <c r="B25" s="0">
-        <v>0.011880844314218209</v>
+        <v>0.039325891144509129</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.057659659825704423</v>
+        <v>-0.030325389186325324</v>
       </c>
       <c r="B26" s="0">
-        <v>0.057603418976945875</v>
+        <v>0.030316736236249753</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.055103419004814302</v>
+        <v>-0.027816736270250164</v>
       </c>
       <c r="B27" s="0">
-        <v>0.054786563378497632</v>
+        <v>0.027767348482161669</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.052786563408576015</v>
+        <v>-0.025767348516047228</v>
       </c>
       <c r="B28" s="0">
-        <v>0.052583021838695565</v>
+        <v>0.025735915668282594</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.045583021898067955</v>
+        <v>-0.018735915730030861</v>
       </c>
       <c r="B29" s="0">
-        <v>0.045534383140123147</v>
+        <v>0.018726752280025849</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.014465616525550118</v>
+        <v>0.041273247380609224</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.014482327902426206</v>
+        <v>-0.041461357514294139</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.021482327842761606</v>
+        <v>0.048461357455293452</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.021494287879741947</v>
+        <v>-0.048576813700377031</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040012686014403442</v>
+        <v>-0.0040012615824913667</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999563935518</v>
+        <v>0.003999999957843059</v>
       </c>
     </row>
   </sheetData>
